--- a/biology/Biochimie/Test_rapide_antigénique/Test_rapide_antigénique.xlsx
+++ b/biology/Biochimie/Test_rapide_antigénique/Test_rapide_antigénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_rapide_antig%C3%A9nique</t>
+          <t>Test_rapide_antigénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un test rapide antigénique (TRA), ou test rapide, est un test de diagnostic rapide adapté aux tests sur le lieu de soins qui détecte directement la présence ou l'absence d'un antigène. Il est couramment utilisé pour la détection du SARS-CoV-2, le virus à l'origine de la Covid-19. Les tests rapides sont un type de tests à flux latéral qui détectent les protéines, ce qui les distingue des autres tests médicaux qui détectent les anticorps (tests d'anticorps) ou l'acide nucléique (tests d'acide nucléique), de type laboratoire ou « point-of-care »[pas clair]. Les tests rapides donnent généralement un résultat en 5 à 30 minutes, ne nécessitent qu'une formation ou une infrastructure minimale et présentent des avantages considérables en termes de coûts.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test_rapide_antig%C3%A9nique</t>
+          <t>Test_rapide_antigénique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les exemples courants de tests rapides antigéniques, citons :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parmi les exemples courants de tests rapides antigéniques, citons :
 Tests rapides liés au test Covid-19 : test diagnostique du SARS-CoV-2 ;
-Tests rapides de dépistage du streptocoque (pour les antigènes streptococciques)[1] ;
+Tests rapides de dépistage du streptocoque (pour les antigènes streptococciques) ;
 Tests de diagnostic rapide de la grippe (RIDT) (pour les antigènes du virus de la grippe) ;
-Tests de détection des antigènes du paludisme (pour les antigènes du Plasmodium).
-Tests rapides de détection d'antigènes Covid-19
-Les tests rapides de détection de l'antigène Covid-19 constituent l'une des applications les plus utiles de ces tests. Souvent appelés tests à flux latéral, ils ont apporté plusieurs avantages aux gouvernements mondiaux. Ils sont rapides à mettre en œuvre avec une formation minimale, offrent des avantages significatifs en termes de coûts, coûtant une fraction des formes existantes de tests PCR, et donnent aux utilisateurs un résultat en 5 à 30 minutes. Les tests antigéniques rapides ont trouvé leur meilleure utilisation dans le cadre de tests de masse ou d'approches de dépistage à l'échelle de la population[2] car ils permettent d'identifier les individus les plus infectieux et susceptibles de transmettre le virus à un grand nombre d'autres personnes[3]. Ils se différencient en cela des autres formes de tests de détection de la Covid-19, telles que la PCR, qui sont généralement considérées comme utiles pour les individus.
-Tests rapides de détection d'antigènes dans l'espace économique européen
-Dans l'union européenne et l'espace économique européen, 84 millions de tests antigéniques ont donné lieu à un certificat covid numérique, contre  60 millions pour le test nucleic acid amplification[4].
-Les 591 millions de certificats cumulent 437 millions de certificats vaccinaux, 84 millions de tests antigéniques, 60 millions de tests
-nucleic acid amplification et 10 millions de certificats de guérisons[4].
-Pour la France, il s'agit de 38 millions de certificats rapid antigen test contre 24 millions de certificats nucleic acid amplification test[4].
-Pour l'Autriche, il s'agit de 20 millions de certificats rapid antigen test contre 10 millions de certificats nucleic acid amplification test[4].
-Pour l'Italie, il s'agit de 15 millions de certificats rapid antigen test contre 7 millions de certificats nucleic acid amplification test[4].
-</t>
+Tests de détection des antigènes du paludisme (pour les antigènes du Plasmodium).</t>
         </is>
       </c>
     </row>
@@ -537,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test_rapide_antig%C3%A9nique</t>
+          <t>Test_rapide_antigénique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +556,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tests rapides de détection d'antigènes Covid-19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tests rapides de détection de l'antigène Covid-19 constituent l'une des applications les plus utiles de ces tests. Souvent appelés tests à flux latéral, ils ont apporté plusieurs avantages aux gouvernements mondiaux. Ils sont rapides à mettre en œuvre avec une formation minimale, offrent des avantages significatifs en termes de coûts, coûtant une fraction des formes existantes de tests PCR, et donnent aux utilisateurs un résultat en 5 à 30 minutes. Les tests antigéniques rapides ont trouvé leur meilleure utilisation dans le cadre de tests de masse ou d'approches de dépistage à l'échelle de la population car ils permettent d'identifier les individus les plus infectieux et susceptibles de transmettre le virus à un grand nombre d'autres personnes. Ils se différencient en cela des autres formes de tests de détection de la Covid-19, telles que la PCR, qui sont généralement considérées comme utiles pour les individus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test_rapide_antigénique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_rapide_antig%C3%A9nique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tests rapides de détection d'antigènes dans l'espace économique européen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'union européenne et l'espace économique européen, 84 millions de tests antigéniques ont donné lieu à un certificat covid numérique, contre  60 millions pour le test nucleic acid amplification.
+Les 591 millions de certificats cumulent 437 millions de certificats vaccinaux, 84 millions de tests antigéniques, 60 millions de tests
+nucleic acid amplification et 10 millions de certificats de guérisons.
+Pour la France, il s'agit de 38 millions de certificats rapid antigen test contre 24 millions de certificats nucleic acid amplification test.
+Pour l'Autriche, il s'agit de 20 millions de certificats rapid antigen test contre 10 millions de certificats nucleic acid amplification test.
+Pour l'Italie, il s'agit de 15 millions de certificats rapid antigen test contre 7 millions de certificats nucleic acid amplification test.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test_rapide_antigénique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_rapide_antig%C3%A9nique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Base scientifique et biologie sous-jacente</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tests d'antigènes et d'anticorps sont souvent des immunodosages (IA) d'un type ou d'un autre, tels que les IA à bandelette ou les immunodosages par fluorescence, mais le TRA est un test immunochromatographique qui donne des résultats visibles à l'œil nu. Il est considéré comme qualitatif, mais une personne expérimentée dans la pratique de ce test peut facilement quantifier les résultats. S'agissant d'un test de dépistage, la sensibilité et la spécificité du test étant relativement faibles, les résultats doivent être évalués sur la base de tests de confirmation tels que la PCR ou le western blot.
 L'un des avantages d'un test d'antigène par rapport à un test d'anticorps (comme les tests rapides de détection des anticorps du VIH) est que le système immunitaire peut mettre du temps à développer des anticorps après le début de l'infection, alors que l'antigène étranger est présent immédiatement. Bien que tout test de diagnostic puisse présenter des faux négatifs, cette période de latence peut ouvrir une voie particulièrement large aux faux négatifs dans les tests d'anticorps, bien que les détails dépendent de la maladie et du test concernés.
@@ -564,34 +649,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Test_rapide_antig%C3%A9nique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test_rapide_antigénique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Test_rapide_antig%C3%A9nique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Tarification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, lorsqu'ils ne sont pas remboursés par la Sécurité sociale, les tests antigéniques, réalisés en pharmacie, par un professionnel de santé ou dans un laboratoire, ont un tarif compris entre 22,02 € (en laboratoire de biologie médicale) et 45,11 euros chez un médecin[5].
-À La Réunion, le tarif des tests est de 27,16 euros en semaine, et de 32,16 euros le dimanche[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, lorsqu'ils ne sont pas remboursés par la Sécurité sociale, les tests antigéniques, réalisés en pharmacie, par un professionnel de santé ou dans un laboratoire, ont un tarif compris entre 22,02 € (en laboratoire de biologie médicale) et 45,11 euros chez un médecin.
+À La Réunion, le tarif des tests est de 27,16 euros en semaine, et de 32,16 euros le dimanche.
 </t>
         </is>
       </c>
